--- a/output/3_Regression/c23/c23table_rmse.xlsx
+++ b/output/3_Regression/c23/c23table_rmse.xlsx
@@ -464,7 +464,7 @@
         <v>0.1700043921812261</v>
       </c>
       <c r="G3">
-        <v>1.597658612648533</v>
+        <v>1.597658612648534</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -556,7 +556,7 @@
         <v>0.07784266443941093</v>
       </c>
       <c r="G7">
-        <v>0.7463754011212687</v>
+        <v>0.7463754011212689</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -602,7 +602,7 @@
         <v>0.06397800324854087</v>
       </c>
       <c r="G9">
-        <v>0.6828553122924547</v>
+        <v>0.6828553122924548</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -694,7 +694,7 @@
         <v>0.05098481966933295</v>
       </c>
       <c r="G13">
-        <v>0.4207661165914307</v>
+        <v>0.4207661165914306</v>
       </c>
     </row>
   </sheetData>
